--- a/tabelas/item_pedido.xlsx
+++ b/tabelas/item_pedido.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20378"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\COM\Human_Resources\01.Engineering_Tech_School\02.Internal\10 - Aprendizes\5 - Desenvolvimento de Sistemas\1 - Alunos\Thiago N. Pedron\Banco de Dados\repositorio\BANCO_DE_DADOS\tabelas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B067991A-64D4-4295-BDF8-C939D097E542}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,49 +20,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">Número do
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>pedido</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">Código do
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>produto</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>Quantidade</t>
-    </r>
-  </si>
   <si>
     <r>
       <rPr>
@@ -82,11 +38,20 @@
       <t>-;;</t>
     </r>
   </si>
+  <si>
+    <t>id_pedido</t>
+  </si>
+  <si>
+    <t>id_produto</t>
+  </si>
+  <si>
+    <t>quantidade</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -458,11 +423,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,13 +439,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -555,7 +520,7 @@
         <v>77</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -742,7 +707,7 @@
         <v>77</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
